--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t xml:space="preserve">Delete Invite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/images/:ImageName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Image</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -267,19 +276,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +366,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF158289"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -405,7 +409,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,10 +490,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -498,7 +498,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,11 +522,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,7 +538,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -550,10 +550,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -562,23 +558,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -659,16 +643,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.42"/>
   </cols>
@@ -743,7 +727,6 @@
         <v>14</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
@@ -760,7 +743,6 @@
         <v>17</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
@@ -802,53 +784,53 @@
       <c r="G8" s="19" t="n">
         <v>200</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="23" t="n">
         <v>201</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28" t="n">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="n">
         <v>301</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>35</v>
       </c>
     </row>
@@ -861,10 +843,10 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="28" t="n">
         <v>401</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -885,54 +867,54 @@
       <c r="F12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G12" s="29" t="n">
         <v>403</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="33" t="n">
+      <c r="F13" s="26"/>
+      <c r="G13" s="32" t="n">
         <v>404</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="27"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -950,61 +932,57 @@
       <c r="E15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="0"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="0"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="0"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
@@ -1015,7 +993,6 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -1034,41 +1011,38 @@
       <c r="F20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="31" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="0"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="0"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
@@ -1077,82 +1051,85 @@
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="0"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="37" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="0"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="G25" s="0"/>
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="G26" s="0"/>
+      <c r="A26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="G27" s="0"/>
+      <c r="A27" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="G28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="G29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -1177,6 +1154,10 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -179,24 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">Delete Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/event/:eventid?userid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create &amp; Send  Invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add User To Wait List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept Invite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete Invite</t>
   </si>
   <si>
     <t xml:space="preserve">Images</t>
@@ -639,20 +621,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.42"/>
   </cols>
@@ -1013,123 +995,31 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="38" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>54</v>
-      </c>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="33" t="s">
-        <v>56</v>
-      </c>
+      <c r="E22" s="33"/>
       <c r="F22" s="26"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="22">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -1152,12 +1042,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -184,10 +184,22 @@
     <t xml:space="preserve">Images</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/uploads/images/:ImageName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Image</t>
+    <t xml:space="preserve">HOST/uploads/users/:ImageName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get User Profile Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/events/background/:ImageName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Event Background Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/events/eventImage/:ImageName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Event  Main Image</t>
   </si>
 </sst>
 </file>
@@ -197,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,8 +270,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,7 +316,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF629820"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF5EB91E"/>
       </patternFill>
     </fill>
     <fill>
@@ -354,6 +371,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5EB91E"/>
+        <bgColor rgb="FF629820"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +414,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,6 +568,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,7 +636,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3B6FBA"/>
       <rgbColor rgb="FF2EACC0"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFCA9831"/>
       <rgbColor rgb="FFFE5901"/>
@@ -625,17 +660,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.42"/>
   </cols>
   <sheetData>
@@ -1011,15 +1047,35 @@
       <c r="F21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="F22" s="26"/>
     </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -1042,6 +1098,7 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">Get User Profile Image</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/uploads/events/background/:ImageName </t>
+    <t xml:space="preserve">HOST/uploads/events/backgroundImage/:ImageName </t>
   </si>
   <si>
     <t xml:space="preserve">Get Event Background Image</t>
@@ -199,7 +199,10 @@
     <t xml:space="preserve">HOST/uploads/events/eventImage/:ImageName</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Event  Main Image</t>
+    <t xml:space="preserve">Get Event Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:3000/uploads/events/backgroundImage/1671302025285.png</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,11 +273,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -414,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,11 +573,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -660,13 +654,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
@@ -1066,12 +1060,18 @@
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="20" t="s">
         <v>59</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -55,27 +55,27 @@
     <t xml:space="preserve">Login User</t>
   </si>
   <si>
+    <t xml:space="preserve">LOGOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/user/logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/user/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create User</t>
+  </si>
+  <si>
     <t xml:space="preserve">GET</t>
   </si>
   <si>
-    <t xml:space="preserve">LOGOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/user/logout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logout User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/user/register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create User</t>
-  </si>
-  <si>
     <t xml:space="preserve">READ</t>
   </si>
   <si>
@@ -202,7 +202,13 @@
     <t xml:space="preserve">Get Event Image</t>
   </si>
   <si>
-    <t xml:space="preserve">http://localhost:3000/uploads/events/backgroundImage/1671302025285.png</t>
+    <t xml:space="preserve">Auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get New Acess Token</t>
   </si>
 </sst>
 </file>
@@ -654,13 +660,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
@@ -726,17 +732,17 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9"/>
     </row>
@@ -745,20 +751,20 @@
         <v>7</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>18</v>
@@ -780,7 +786,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>18</v>
@@ -888,7 +894,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>18</v>
@@ -910,7 +916,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>18</v>
@@ -935,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>45</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>18</v>
@@ -1026,7 +1032,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>18</v>
@@ -1042,7 +1048,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>18</v>
@@ -1057,6 +1063,9 @@
       <c r="F22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
@@ -1069,13 +1078,58 @@
       </c>
       <c r="F23" s="26"/>
     </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="26"/>
+    </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
-        <v>60</v>
-      </c>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -1099,6 +1153,9 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -662,11 +662,11 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Status Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/user/profile?id</t>
+    <t xml:space="preserve">HOST/user/profile/id</t>
   </si>
   <si>
     <t xml:space="preserve">Other Users Profile</t>
@@ -662,11 +662,11 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -130,33 +130,393 @@
     <t xml:space="preserve">Moved  Permanently</t>
   </si>
   <si>
+    <t xml:space="preserve">Orgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forbidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/org/login</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Login O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Found</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/logout</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Logout </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Org</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Error</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/register</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Create </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Org</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/profile/id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/update</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Info</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/delete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Delete </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Account</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Events</t>
   </si>
   <si>
-    <t xml:space="preserve">Unauthorized</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forbidden</t>
-  </si>
-  <si>
     <t xml:space="preserve">HOST/</t>
   </si>
   <si>
     <t xml:space="preserve">View All Events</t>
   </si>
   <si>
-    <t xml:space="preserve">Not Found</t>
-  </si>
-  <si>
     <t xml:space="preserve">HOST/event/:eventid/owner</t>
   </si>
   <si>
     <t xml:space="preserve">Get Event Owner Profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Server Error</t>
-  </si>
-  <si>
     <t xml:space="preserve">HOST/event/register</t>
   </si>
   <si>
@@ -190,13 +550,111 @@
     <t xml:space="preserve">Get User Profile Image</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/uploads/events/backgroundImage/:ImageName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Event Background Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/events/eventImage/:ImageName</t>
+    <t xml:space="preserve">HOST/uploads/orgs/backgroundImage/:ImageName </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">orgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Background Image</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/uploads/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">orgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Image/:ImageName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">orgs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Image</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/events/:ImageName</t>
   </si>
   <si>
     <t xml:space="preserve">Get Event Image</t>
@@ -218,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -279,8 +737,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,7 +771,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF780373"/>
-        <bgColor rgb="FF800080"/>
+        <bgColor rgb="FF660066"/>
       </patternFill>
     </fill>
     <fill>
@@ -356,7 +825,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8E2098"/>
-        <bgColor rgb="FF800080"/>
+        <bgColor rgb="FF6A1B9A"/>
       </patternFill>
     </fill>
     <fill>
@@ -383,6 +852,12 @@
         <bgColor rgb="FF629820"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A1B9A"/>
+        <bgColor rgb="FF8E2098"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -418,7 +893,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,6 +1014,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -547,10 +1026,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,6 +1055,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -622,7 +1109,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF6A1B9A"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
@@ -660,13 +1147,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
@@ -893,42 +1380,42 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="32" t="n">
+      <c r="F13" s="9"/>
+      <c r="G13" s="30" t="n">
         <v>404</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="10" t="n">
         <v>500</v>
       </c>
@@ -950,186 +1437,344 @@
       <c r="E15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="C18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
+      <c r="C22" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="s">
+      <c r="C23" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B25" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="C25" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B36" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="26"/>
+      <c r="C36" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="36">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -1148,14 +1793,24 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -1149,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -475,7 +475,32 @@
     <t xml:space="preserve">View All Events</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/event/:eventid/owner</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/event/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">owner/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:eventid</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Get Event Owner Profile</t>
@@ -487,7 +512,7 @@
     <t xml:space="preserve">Create Event</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/event/info/:eventid</t>
+    <t xml:space="preserve">HOST/event/:eventid</t>
   </si>
   <si>
     <t xml:space="preserve">View Event Info</t>
@@ -520,7 +545,23 @@
     <t xml:space="preserve">Generate  Certificate For All Users</t>
   </si>
   <si>
-    <t xml:space="preserve">HOST/event/eventid:/Members</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/event/members/:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">eventid</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Get Members of Event</t>
@@ -789,7 +830,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -911,10 +952,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1005,11 +1042,11 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
@@ -1735,10 +1772,10 @@
       <c r="B44" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="30"/>
       <c r="E44" s="30" t="s">
         <v>94</v>
       </c>
@@ -1773,17 +1810,17 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="32" t="s">
         <v>97</v>
       </c>
       <c r="F47" s="16"/>

--- a/doc.xlsx
+++ b/doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t xml:space="preserve">REST APIs</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">HOST/user/login</t>
   </si>
   <si>
-    <t xml:space="preserve">Login User</t>
+    <t xml:space="preserve">Login User ✅ </t>
   </si>
   <si>
     <t xml:space="preserve">LOGOUT</t>
@@ -61,7 +61,25 @@
     <t xml:space="preserve">HOST/user/logout</t>
   </si>
   <si>
-    <t xml:space="preserve">Logout User</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Logout User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CREATE</t>
@@ -70,7 +88,33 @@
     <t xml:space="preserve">HOST/user/register</t>
   </si>
   <si>
-    <t xml:space="preserve">Create User</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Create User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">GET</t>
@@ -82,7 +126,24 @@
     <t xml:space="preserve">HOST/user/profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> User Profile</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> User Profile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Status Codes</t>
@@ -94,7 +155,24 @@
     <t xml:space="preserve">HOST/user/profile/id</t>
   </si>
   <si>
-    <t xml:space="preserve">Other Users Profile</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Other Users Profile </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Sucsessful</t>
@@ -109,7 +187,24 @@
     <t xml:space="preserve">HOST/user/update</t>
   </si>
   <si>
-    <t xml:space="preserve">Update User Info</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Update User Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Created</t>
@@ -121,7 +216,24 @@
     <t xml:space="preserve">HOST/user/delete</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete User Account</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Delete User Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Moved  Permanently</t>
@@ -130,7 +242,24 @@
     <t xml:space="preserve">HOST/user/join/:eventid</t>
   </si>
   <si>
-    <t xml:space="preserve">Add User To Event</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Add User To Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Unauthorized</t>
@@ -139,7 +268,24 @@
     <t xml:space="preserve">HOST/user/quit/:eventid</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove User From Event</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Remove User From Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> Forbidden</t>
@@ -163,13 +309,31 @@
     <t xml:space="preserve">HOST/org/login</t>
   </si>
   <si>
-    <t xml:space="preserve">Login Org</t>
+    <t xml:space="preserve">Login Org ✅ </t>
   </si>
   <si>
     <t xml:space="preserve">HOST/org/logout</t>
   </si>
   <si>
-    <t xml:space="preserve">Logout Org</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Logout Org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <r>
@@ -221,6 +385,15 @@
       </rPr>
       <t xml:space="preserve">Org</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <r>
@@ -281,6 +454,15 @@
       </rPr>
       <t xml:space="preserve"> Profile</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <r>
@@ -341,6 +523,15 @@
       </rPr>
       <t xml:space="preserve"> Profile</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <r>
@@ -401,6 +592,15 @@
       </rPr>
       <t xml:space="preserve"> Info</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <r>
@@ -461,9 +661,94 @@
       </rPr>
       <t xml:space="preserve"> Account</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/event/:event?userid</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/org/:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">userid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/:event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">BlackList User </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/org/:userid/:event</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Remove User From BlackList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">✅</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Events</t>
@@ -472,7 +757,24 @@
     <t xml:space="preserve">HOST/</t>
   </si>
   <si>
-    <t xml:space="preserve">View All Events</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">View All Events</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <r>
@@ -503,31 +805,268 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Get Event Owner Profile</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get Event Owner Profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">HOST/event/register</t>
   </si>
   <si>
-    <t xml:space="preserve">Create Event</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Create Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">HOST/event/:eventid</t>
   </si>
   <si>
-    <t xml:space="preserve">View Event Info</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">View Event Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">HOST/event/update/:eventid</t>
   </si>
   <si>
-    <t xml:space="preserve">Update Event</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Update Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">HOST/event/delete/:eventid</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete Event</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Delete Event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate  Certificate For All Users</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HOST/event/members/:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">eventid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get Members of Event </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/users/:ImageName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get User Profile Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/orgs/backgroundImage/:ImageName </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get orgs Background Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/orgs/orgImage/:ImageName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get orgs Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/events/:ImageName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get Event Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Certs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/cert/:certnName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Cert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOST/uploads/sig/:sigName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Signature</t>
   </si>
   <si>
     <t xml:space="preserve">HOST/event/checkin/:eventid?userid</t>
@@ -542,80 +1081,30 @@
     <t xml:space="preserve">Record Checkout Time Of User </t>
   </si>
   <si>
-    <t xml:space="preserve">Generate  Certificate For All Users</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HOST/event/members/:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">eventid</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Members of Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/users/:ImageName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get User Profile Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/orgs/backgroundImage/:ImageName </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get orgs Background Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/orgs/orgImage/:ImageName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get orgs Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/events/:ImageName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Event Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/cert/:certnName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Cert </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOST/uploads/sig/:sigName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get Signature</t>
-  </si>
-  <si>
     <t xml:space="preserve">Auth</t>
   </si>
   <si>
     <t xml:space="preserve">HOST/RT</t>
   </si>
   <si>
-    <t xml:space="preserve">Get New Acess Token</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Get New Acess Token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ✅ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -625,7 +1114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -685,6 +1174,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -830,7 +1325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -935,6 +1430,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -952,6 +1451,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,10 +1543,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="350" zoomScaleNormal="350" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1051,7 +1554,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.42"/>
   </cols>
@@ -1445,265 +1948,265 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="24" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
+      <c r="C27" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
+      <c r="C28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
+      <c r="C29" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
+      <c r="C30" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
+      <c r="C31" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="26" t="s">
+      <c r="C32" s="28" t="s">
         <v>75</v>
       </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="F32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="26" t="s">
+      <c r="A33" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="27" t="s">
         <v>77</v>
       </c>
       <c r="F33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="26" t="s">
+      <c r="A34" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>78</v>
       </c>
+      <c r="D34" s="28"/>
+      <c r="E34" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="F34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B37" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="C37" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29" t="s">
+      <c r="C38" s="29" t="s">
         <v>83</v>
       </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="F38" s="16"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29" t="s">
+      <c r="C39" s="29" t="s">
         <v>85</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -1711,122 +2214,154 @@
       <c r="A40" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29" t="s">
+      <c r="C40" s="29" t="s">
         <v>87</v>
       </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="F40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B42" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="C42" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>92</v>
       </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="F43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30" t="s">
+      <c r="A44" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>94</v>
       </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="F44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6" t="s">
+      <c r="D48" s="5"/>
+      <c r="E48" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B49" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="16"/>
+      <c r="C49" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -1850,8 +2385,8 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
@@ -1861,19 +2396,21 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
